--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-25.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-25.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -813,12 +813,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -828,114 +828,114 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>19:25 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>19:25 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -987,22 +987,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>UK@SC</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1011,49 +1011,49 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" t="n">
         <v>8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>AUB@OU</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1093,16 +1093,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1114,28 +1114,28 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
         <v>6</v>
       </c>
-      <c r="R8" t="n">
-        <v>12</v>
-      </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>TENN@MIZ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1175,49 +1175,49 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R9" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1238,17 +1238,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>UK@SC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
         <v>19</v>
@@ -1266,40 +1266,40 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>37</v>
       </c>
       <c r="Q10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R10" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1310,22 +1310,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1339,49 +1339,49 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I11" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8</v>
+      </c>
+      <c r="R11" t="n">
+        <v>13</v>
+      </c>
+      <c r="S11" t="n">
         <v>6</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>7</v>
-      </c>
-      <c r="R11" t="n">
-        <v>10</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1392,22 +1392,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1421,60 +1421,60 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
         <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q12" t="n">
         <v>8</v>
       </c>
       <c r="R12" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1484,35 +1484,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>19:25 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1561,17 +1561,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1585,49 +1585,49 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>3</v>
       </c>
       <c r="P14" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="n">
         <v>7</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>TENN@MIZ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1667,34 +1667,34 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I15" t="n">
+        <v>23</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="n">
         <v>8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>13</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1730,17 +1730,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>UK@SC</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1749,43 +1749,43 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1831,19 +1831,19 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1852,25 +1852,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
@@ -1889,22 +1889,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>UK@SC</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1913,49 +1913,49 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1995,49 +1995,49 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2048,27 +2048,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>AUB@OU</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2077,49 +2077,49 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="n">
         <v>4</v>
       </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,17 +2140,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>TENN@MIZ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2159,49 +2159,49 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Q21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
         <v>5</v>
       </c>
-      <c r="T21" t="n">
-        <v>10</v>
-      </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2222,17 +2222,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>TENN@MIZ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2241,95 +2241,95 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>19:25 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2341,19 +2341,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2371,71 +2371,71 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>19:25 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2458,17 +2458,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2487,46 +2487,46 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
+        <v>11</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
         <v>4</v>
       </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>3</v>
-      </c>
-      <c r="P25" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>10</v>
-      </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>4</v>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2550,17 +2550,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>AUB@OU</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2569,19 +2569,19 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I26" t="n">
+        <v>26</v>
+      </c>
+      <c r="J26" t="n">
         <v>7</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2593,25 +2593,25 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R26" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2622,27 +2622,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>AUB@OU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2654,46 +2654,46 @@
         <v>16</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R27" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
         <v>4</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2704,27 +2704,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>TENN@MIZ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2733,60 +2733,60 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2796,79 +2796,79 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>19:25 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2878,56 +2878,56 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>19:25 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2950,27 +2950,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>AUB@OU</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2979,49 +2979,49 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I31" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>10</v>
+      </c>
+      <c r="V31" t="n">
         <v>12</v>
-      </c>
-      <c r="R31" t="n">
-        <v>17</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
-      <c r="V31" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3042,17 +3042,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Filip Jovic</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>UK@SC</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3061,46 +3061,46 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P32" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>4</v>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3124,17 +3124,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>UK@SC</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3143,43 +3143,43 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3191,153 +3191,153 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>19:25 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>19:25 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3346,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3360,17 +3360,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3389,43 +3389,43 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
         <v>6</v>
       </c>
-      <c r="J36" t="n">
-        <v>3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2</v>
-      </c>
-      <c r="P36" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2</v>
-      </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U36" t="n">
         <v>1</v>
@@ -3442,27 +3442,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>AUB@OU</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
         <v>3</v>
@@ -3489,31 +3489,31 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>AUB@OU</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3553,49 +3553,49 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>2</v>
       </c>
       <c r="P38" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
         <v>5</v>
       </c>
-      <c r="R38" t="n">
-        <v>10</v>
-      </c>
       <c r="S38" t="n">
         <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
@@ -3644,28 +3644,28 @@
         <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q39" t="n">
         <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3698,17 +3698,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>TENN@MIZ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3717,46 +3717,46 @@
         </is>
       </c>
       <c r="H40" t="n">
+        <v>26</v>
+      </c>
+      <c r="I40" t="n">
+        <v>28</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>12</v>
+      </c>
+      <c r="R40" t="n">
+        <v>17</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>4</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>4</v>
-      </c>
-      <c r="P40" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
-      <c r="U40" t="n">
-        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>6</v>
@@ -3780,17 +3780,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Filip Jovic</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>AUB@OU</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3799,49 +3799,49 @@
         </is>
       </c>
       <c r="H41" t="n">
+        <v>17</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>8</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
         <v>4</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>2</v>
-      </c>
-      <c r="P41" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>15</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>7</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3862,12 +3862,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3881,31 +3881,31 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q42" t="n">
         <v>2</v>
@@ -3917,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>TENN@MIZ</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3963,49 +3963,49 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q43" t="n">
         <v>5</v>
       </c>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4026,12 +4026,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4045,37 +4045,37 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4127,49 +4127,49 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4190,17 +4190,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>TENN@MIZ</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4209,16 +4209,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -4227,25 +4227,25 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P46" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
+        <v>7</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="n">
         <v>6</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
-      <c r="T46" t="n">
-        <v>5</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4272,17 +4272,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>UK@SC</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4291,43 +4291,43 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -4354,17 +4354,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UK@SC</t>
+          <t>AUB@OU</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4373,34 +4373,34 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P48" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
         <v>4</v>
@@ -4409,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4436,17 +4436,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>AUB@OU</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4455,10 +4455,10 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
         <v>2</v>
@@ -4473,19 +4473,19 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P49" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4494,10 +4494,10 @@
         <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -4518,17 +4518,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TENN@MIZ</t>
+          <t>UK@SC</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4537,19 +4537,19 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4558,28 +4558,28 @@
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4619,13 +4619,13 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -4637,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4658,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -4716,22 +4716,22 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -4764,17 +4764,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>AUB@OU</t>
+          <t>UK@SC</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4783,13 +4783,13 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -4807,13 +4807,13 @@
         <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4846,67 +4846,887 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>Eli Ellis</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>UK@SC</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2</v>
+      </c>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Nordin Kapic</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>UK@SC</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>TENN@MIZ</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>UK@SC</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Amari Evans</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>TENN@MIZ</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>TENN@MIZ</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Troy Henderson</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>TENN@MIZ</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>UK@SC</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Kai Rogers</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>AUB@OU</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>Jasper Johnson</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>UK@SC</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="H63" t="n">
         <v>-4</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>3</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2</v>
-      </c>
-      <c r="P54" t="n">
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+      <c r="P63" t="n">
         <v>8</v>
       </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="n">
-        <v>3</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>3</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" t="n">
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>FLA@TEX</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>19:25 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4974,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4987,30 +5807,30 @@
         <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5039,7 +5859,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-25.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-25.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V142"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -925,53 +925,53 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="n">
+        <v>8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>13</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
         <v>6</v>
       </c>
-      <c r="R6" t="n">
-        <v>8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1156,68 +1156,68 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FLA@TEX</t>
+          <t>LSU@MISS</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
         <v>5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1238,65 +1238,65 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LSU@MISS</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
         <v>9</v>
       </c>
-      <c r="I10" t="n">
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -1320,68 +1320,68 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LSU@MISS</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1402,26 +1402,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TA&amp;M@ARK</t>
+          <t>LSU@MISS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1430,40 +1430,40 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1991,17 +1991,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -2010,34 +2010,34 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R19" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2058,17 +2058,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FLA@TEX</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2077,46 +2077,46 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
+        <v>13</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
       <c r="R20" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>2</v>
@@ -2140,29 +2140,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TA&amp;M@ARK</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2171,37 +2171,37 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2237,53 +2237,53 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
         <v>6</v>
       </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
         <v>5</v>
       </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2304,17 +2304,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FLA@TEX</t>
+          <t>MSST@ALA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2323,43 +2323,43 @@
         </is>
       </c>
       <c r="H23" t="n">
+        <v>7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8</v>
+      </c>
+      <c r="J23" t="n">
         <v>5</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,62 +2386,62 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MSST@ALA</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P24" t="n">
         <v>16</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2811,47 +2811,47 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I29" t="n">
+        <v>16</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" t="n">
         <v>14</v>
       </c>
-      <c r="J29" t="n">
-        <v>4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="n">
         <v>9</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>7</v>
       </c>
       <c r="U29" t="n">
         <v>1</v>
@@ -2975,53 +2975,53 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I31" t="n">
+        <v>26</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>9</v>
+      </c>
+      <c r="R31" t="n">
+        <v>18</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3</v>
+      </c>
+      <c r="U31" t="n">
         <v>7</v>
       </c>
-      <c r="J31" t="n">
-        <v>3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -3057,17 +3057,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -3100,10 +3100,10 @@
         <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3139,47 +3139,47 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3221,17 +3221,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>1</v>
@@ -3249,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3264,10 +3264,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3795,20 +3795,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -3817,25 +3817,25 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3877,17 +3877,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -4041,20 +4041,20 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4066,22 +4066,22 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
         <v>7</v>
       </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4533,47 +4533,47 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I50" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q50" t="n">
+        <v>8</v>
+      </c>
+      <c r="R50" t="n">
+        <v>10</v>
+      </c>
+      <c r="S50" t="n">
         <v>6</v>
       </c>
-      <c r="R50" t="n">
-        <v>6</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
       <c r="T50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U50" t="n">
         <v>1</v>
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Duke Miles</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>UGA@VAN</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4619,49 +4619,49 @@
         </is>
       </c>
       <c r="H51" t="n">
+        <v>21</v>
+      </c>
+      <c r="I51" t="n">
+        <v>22</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>7</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>7</v>
+      </c>
+      <c r="R51" t="n">
         <v>19</v>
       </c>
-      <c r="I51" t="n">
-        <v>15</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>4</v>
-      </c>
-      <c r="P51" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q51" t="n">
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
         <v>6</v>
       </c>
-      <c r="R51" t="n">
-        <v>10</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
-      <c r="T51" t="n">
-        <v>5</v>
-      </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Duke Miles</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="H52" t="n">
+        <v>19</v>
+      </c>
+      <c r="I52" t="n">
         <v>15</v>
       </c>
-      <c r="I52" t="n">
-        <v>9</v>
-      </c>
       <c r="J52" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -4725,25 +4725,25 @@
         <v>4</v>
       </c>
       <c r="P52" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4764,68 +4764,68 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TA&amp;M@ARK</t>
+          <t>UGA@VAN</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I53" t="n">
+        <v>9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>4</v>
+      </c>
+      <c r="P53" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
         <v>5</v>
       </c>
-      <c r="J53" t="n">
-        <v>4</v>
-      </c>
-      <c r="K53" t="n">
-        <v>5</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>9</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" t="n">
-        <v>3</v>
-      </c>
-      <c r="U53" t="n">
-        <v>3</v>
-      </c>
       <c r="V53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -4846,50 +4846,50 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FLA@TEX</t>
+          <t>LSU@MISS</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I54" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P54" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q54" t="n">
         <v>4</v>
@@ -4898,16 +4898,16 @@
         <v>6</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -4928,68 +4928,68 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>LSU@MISS</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
+        <v>17</v>
+      </c>
+      <c r="I55" t="n">
         <v>12</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
+        <v>3</v>
+      </c>
+      <c r="K55" t="n">
         <v>6</v>
       </c>
-      <c r="J55" t="n">
-        <v>3</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O55" t="n">
         <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -5599,53 +5599,53 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
+        <v>13</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="n">
         <v>6</v>
       </c>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
-      <c r="T63" t="n">
-        <v>3</v>
-      </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -5681,53 +5681,53 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J64" t="n">
         <v>6</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T64" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -5748,17 +5748,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>UGA@VAN</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5767,16 +5767,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -5785,28 +5785,28 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P65" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
         <v>2</v>
@@ -5830,26 +5830,26 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TA&amp;M@ARK</t>
+          <t>UGA@VAN</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5858,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -5867,31 +5867,31 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P66" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -6337,53 +6337,53 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I72" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J72" t="n">
+        <v>7</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
+      <c r="P72" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>9</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3</v>
+      </c>
+      <c r="U72" t="n">
         <v>6</v>
       </c>
-      <c r="K72" t="n">
-        <v>2</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>3</v>
-      </c>
-      <c r="R72" t="n">
-        <v>3</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1</v>
-      </c>
-      <c r="U72" t="n">
-        <v>4</v>
-      </c>
       <c r="V72" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -6419,20 +6419,20 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
         <v>6</v>
       </c>
-      <c r="J73" t="n">
-        <v>4</v>
-      </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -6441,25 +6441,25 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U73" t="n">
         <v>3</v>
@@ -6501,20 +6501,20 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I74" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -6523,31 +6523,31 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Q74" t="n">
+        <v>11</v>
+      </c>
+      <c r="R74" t="n">
+        <v>24</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="n">
         <v>6</v>
       </c>
-      <c r="R74" t="n">
-        <v>9</v>
-      </c>
-      <c r="S74" t="n">
-        <v>4</v>
-      </c>
-      <c r="T74" t="n">
-        <v>5</v>
-      </c>
       <c r="U74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V74" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -6665,20 +6665,20 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -6690,22 +6690,22 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -6747,17 +6747,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P77" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -8782,17 +8782,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>UGA@VAN</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -8801,49 +8801,49 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I102" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J102" t="n">
+        <v>9</v>
+      </c>
+      <c r="K102" t="n">
+        <v>4</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="n">
+        <v>4</v>
+      </c>
+      <c r="P102" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q102" t="n">
         <v>6</v>
       </c>
-      <c r="K102" t="n">
+      <c r="R102" t="n">
+        <v>7</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
         <v>6</v>
       </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>2</v>
-      </c>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-      <c r="O102" t="n">
-        <v>3</v>
-      </c>
-      <c r="P102" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>5</v>
-      </c>
-      <c r="R102" t="n">
-        <v>9</v>
-      </c>
-      <c r="S102" t="n">
-        <v>2</v>
-      </c>
-      <c r="T102" t="n">
-        <v>3</v>
-      </c>
-      <c r="U102" t="n">
-        <v>1</v>
-      </c>
       <c r="V102" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -8864,68 +8864,68 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>FLA@TEX</t>
+          <t>LSU@MISS</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H103" t="n">
+        <v>27</v>
+      </c>
+      <c r="I103" t="n">
         <v>16</v>
       </c>
-      <c r="I103" t="n">
-        <v>9</v>
-      </c>
       <c r="J103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P103" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Q103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R103" t="n">
         <v>6</v>
       </c>
       <c r="S103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T103" t="n">
         <v>2</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -8946,12 +8946,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -8961,53 +8961,53 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="J104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O104" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P104" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>11</v>
+      </c>
+      <c r="R104" t="n">
         <v>14</v>
       </c>
-      <c r="Q104" t="n">
-        <v>2</v>
-      </c>
-      <c r="R104" t="n">
-        <v>2</v>
-      </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -9047,49 +9047,49 @@
         </is>
       </c>
       <c r="H105" t="n">
+        <v>21</v>
+      </c>
+      <c r="I105" t="n">
+        <v>13</v>
+      </c>
+      <c r="J105" t="n">
+        <v>6</v>
+      </c>
+      <c r="K105" t="n">
+        <v>6</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="n">
+        <v>3</v>
+      </c>
+      <c r="P105" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
         <v>9</v>
       </c>
-      <c r="I105" t="n">
-        <v>6</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2</v>
-      </c>
-      <c r="K105" t="n">
-        <v>2</v>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>1</v>
-      </c>
-      <c r="O105" t="n">
-        <v>2</v>
-      </c>
-      <c r="P105" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>1</v>
-      </c>
-      <c r="R105" t="n">
-        <v>2</v>
-      </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -9110,17 +9110,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>UGA@VAN</t>
+          <t>MSST@ALA</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -9129,49 +9129,49 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I106" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O106" t="n">
         <v>2</v>
       </c>
       <c r="P106" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U106" t="n">
         <v>1</v>
       </c>
       <c r="V106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -9192,62 +9192,62 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>MSST@ALA</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H107" t="n">
+        <v>16</v>
+      </c>
+      <c r="I107" t="n">
         <v>9</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
+        <v>8</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
         <v>6</v>
       </c>
-      <c r="J107" t="n">
-        <v>2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>2</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0</v>
-      </c>
-      <c r="P107" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>2</v>
-      </c>
-      <c r="R107" t="n">
-        <v>3</v>
-      </c>
       <c r="S107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
@@ -9274,35 +9274,35 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>UGA@VAN</t>
+          <t>LSU@MISS</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K108" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -9311,25 +9311,25 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Q108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R108" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -9356,12 +9356,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -9371,47 +9371,47 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I109" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P109" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Q109" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R109" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
         <v>2</v>
@@ -9438,32 +9438,32 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>FLA@TEX</t>
+          <t>LSU@MISS</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I110" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K110" t="n">
         <v>2</v>
@@ -9475,31 +9475,31 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P110" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R110" t="n">
         <v>6</v>
       </c>
       <c r="S110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T110" t="n">
         <v>5</v>
       </c>
       <c r="U110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -9520,12 +9520,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -9535,47 +9535,47 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H111" t="n">
+        <v>12</v>
+      </c>
+      <c r="I111" t="n">
+        <v>8</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
         <v>6</v>
       </c>
-      <c r="I111" t="n">
-        <v>6</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1</v>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>1</v>
-      </c>
-      <c r="P111" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>2</v>
-      </c>
-      <c r="R111" t="n">
-        <v>5</v>
-      </c>
       <c r="S111" t="n">
         <v>2</v>
       </c>
       <c r="T111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
@@ -9602,32 +9602,32 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>LSU@MISS</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I112" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K112" t="n">
         <v>1</v>
@@ -9636,34 +9636,34 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P112" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Q112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R112" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T112" t="n">
         <v>3</v>
       </c>
       <c r="U112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -9684,17 +9684,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>FLA@TEX</t>
+          <t>MSST@ALA</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -9703,19 +9703,19 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -9727,19 +9727,19 @@
         <v>2</v>
       </c>
       <c r="P113" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S113" t="n">
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U113" t="n">
         <v>0</v>
@@ -9766,17 +9766,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>UGA@VAN</t>
+          <t>MSST@ALA</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -9785,49 +9785,49 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I114" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N114" t="n">
         <v>1</v>
       </c>
       <c r="O114" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P114" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R114" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S114" t="n">
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -9848,17 +9848,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>FLA@TEX</t>
+          <t>UGA@VAN</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -9867,31 +9867,31 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J115" t="n">
         <v>2</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P115" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -9903,13 +9903,13 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -9930,32 +9930,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>MSST@ALA</t>
+          <t>UGA@VAN</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I116" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -9964,34 +9964,34 @@
         <v>1</v>
       </c>
       <c r="M116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>1</v>
       </c>
       <c r="O116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P116" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>6</v>
+      </c>
+      <c r="R116" t="n">
         <v>13</v>
       </c>
-      <c r="Q116" t="n">
-        <v>2</v>
-      </c>
-      <c r="R116" t="n">
-        <v>7</v>
-      </c>
       <c r="S116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T116" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -10012,68 +10012,68 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>LSU@MISS</t>
+          <t>MSST@ALA</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R117" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -10109,23 +10109,23 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -10134,28 +10134,28 @@
         <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P118" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="Q118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -10176,68 +10176,68 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MSST@ALA</t>
+          <t>LSU@MISS</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P119" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q119" t="n">
         <v>2</v>
       </c>
       <c r="R119" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
       </c>
       <c r="V119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -10258,32 +10258,32 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>MSST@ALA</t>
+          <t>UGA@VAN</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
         <v>1</v>
@@ -10298,16 +10298,16 @@
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P120" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S120" t="n">
         <v>0</v>
@@ -10340,17 +10340,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>FLA@TEX</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -10359,16 +10359,16 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
@@ -10377,13 +10377,13 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P121" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q121" t="n">
         <v>2</v>
@@ -10392,10 +10392,10 @@
         <v>3</v>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U121" t="n">
         <v>0</v>
@@ -10422,62 +10422,62 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>TA&amp;M@ARK</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I122" t="n">
+        <v>8</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>3</v>
+      </c>
+      <c r="R122" t="n">
+        <v>6</v>
+      </c>
+      <c r="S122" t="n">
+        <v>2</v>
+      </c>
+      <c r="T122" t="n">
         <v>5</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" t="n">
-        <v>1</v>
-      </c>
-      <c r="O122" t="n">
-        <v>1</v>
-      </c>
-      <c r="P122" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>2</v>
-      </c>
-      <c r="R122" t="n">
-        <v>3</v>
-      </c>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-      <c r="T122" t="n">
-        <v>2</v>
       </c>
       <c r="U122" t="n">
         <v>0</v>
@@ -10504,32 +10504,32 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>MSST@ALA</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -10541,19 +10541,19 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P123" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S123" t="n">
         <v>0</v>
@@ -10562,10 +10562,10 @@
         <v>0</v>
       </c>
       <c r="U123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -10605,10 +10605,10 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
@@ -10626,28 +10626,28 @@
         <v>1</v>
       </c>
       <c r="O124" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P124" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R124" t="n">
         <v>4</v>
       </c>
       <c r="S124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T124" t="n">
         <v>2</v>
       </c>
       <c r="U124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -10668,38 +10668,38 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>LSU@MISS</t>
+          <t>MSST@ALA</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
@@ -10708,28 +10708,28 @@
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P125" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R125" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -10769,19 +10769,19 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -10796,10 +10796,10 @@
         <v>19</v>
       </c>
       <c r="Q126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S126" t="n">
         <v>0</v>
@@ -10808,10 +10808,10 @@
         <v>1</v>
       </c>
       <c r="U126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -10847,17 +10847,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -10869,31 +10869,31 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P127" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -10914,12 +10914,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -10929,35 +10929,35 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P128" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
@@ -10969,13 +10969,13 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11011,17 +11011,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -11030,28 +11030,28 @@
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
       </c>
       <c r="R129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
@@ -11078,35 +11078,35 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>LSU@MISS</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L130" t="n">
         <v>1</v>
@@ -11115,25 +11115,25 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="Q130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
@@ -11160,62 +11160,62 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>TA&amp;M@ARK</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P131" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R131" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U131" t="n">
         <v>0</v>
@@ -11242,35 +11242,35 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>TA&amp;M@ARK</t>
+          <t>MSST@ALA</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
@@ -11279,25 +11279,25 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U132" t="n">
         <v>0</v>
@@ -11324,17 +11324,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>UGA@VAN</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -11343,13 +11343,13 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -11358,28 +11358,28 @@
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P133" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U133" t="n">
         <v>0</v>
@@ -11406,62 +11406,62 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>TA&amp;M@ARK</t>
+          <t>UGA@VAN</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
@@ -11488,32 +11488,32 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>UGA@VAN</t>
+          <t>LSU@MISS</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:23 - 2OT</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -11525,13 +11525,13 @@
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
@@ -11546,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="U135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V135" t="n">
         <v>2</v>
@@ -11570,17 +11570,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>UGA@VAN</t>
+          <t>FLA@TEX</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -11589,19 +11589,19 @@
         </is>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M136" t="n">
         <v>0</v>
@@ -11610,22 +11610,22 @@
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P136" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Q136" t="n">
         <v>0</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S136" t="n">
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
@@ -11652,62 +11652,62 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>LSU@MISS</t>
+          <t>MSST@ALA</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R137" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
@@ -11734,29 +11734,29 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>MSST@ALA</t>
+          <t>UGA@VAN</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0:37 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
@@ -11780,16 +11780,16 @@
         <v>3</v>
       </c>
       <c r="Q138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U138" t="n">
         <v>0</v>
@@ -11816,17 +11816,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>UGA@VAN</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="P139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q139" t="n">
         <v>0</v>
@@ -11898,35 +11898,35 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>LSU@MISS</t>
+          <t>TA&amp;M@ARK</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>3:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
@@ -11935,25 +11935,25 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O140" t="n">
         <v>0</v>
       </c>
       <c r="P140" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
@@ -11980,32 +11980,32 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>TA&amp;M@ARK</t>
+          <t>UGA@VAN</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -12020,28 +12020,28 @@
         <v>1</v>
       </c>
       <c r="O141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P141" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Q141" t="n">
         <v>0</v>
       </c>
       <c r="R141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S141" t="n">
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -12062,32 +12062,32 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>TA&amp;M@ARK</t>
+          <t>UGA@VAN</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -12102,27 +12102,273 @@
         <v>0</v>
       </c>
       <c r="O142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P142" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
       </c>
       <c r="R142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
       </c>
       <c r="V142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LSU@MISS</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0:23 - 2OT</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>MSST@ALA</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1</v>
+      </c>
+      <c r="P144" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>UGA@VAN</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
+      <c r="V145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12170,11 +12416,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -12183,11 +12429,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -12200,7 +12446,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -12209,11 +12455,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -12222,11 +12468,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -12235,11 +12481,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -12248,11 +12494,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-25.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-25.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1171,14 +1171,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
         <v>7</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -6501,14 +6501,14 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H74" t="n">
         <v>23</v>
       </c>
       <c r="I74" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J74" t="n">
         <v>4</v>
@@ -6544,10 +6544,10 @@
         <v>6</v>
       </c>
       <c r="U74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V74" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -9453,7 +9453,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -9481,7 +9481,7 @@
         <v>4</v>
       </c>
       <c r="P110" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q110" t="n">
         <v>4</v>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -10957,7 +10957,7 @@
         <v>2</v>
       </c>
       <c r="P128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -11503,7 +11503,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0:23 - 2OT</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H143" t="n">
